--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Lenguajes\LFP_PY2_201807085\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Lenguajes\LFP_PY2_201807085\LFP_PR2_201807085\DOCUMENTACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -302,12 +302,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,6 +364,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,36 +670,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -699,21 +708,21 @@
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -722,160 +731,160 @@
       <c r="H5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -884,35 +893,35 @@
       <c r="H13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -921,55 +930,55 @@
       <c r="H15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -978,75 +987,75 @@
       <c r="H18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1055,55 +1064,55 @@
       <c r="H22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1117,7 +1126,7 @@
       <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1125,7 +1134,7 @@
       <c r="H27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1133,7 +1142,7 @@
       <c r="H28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1144,7 +1153,7 @@
       <c r="H30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1152,7 +1161,7 @@
       <c r="H31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1160,7 +1169,7 @@
       <c r="H32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1168,7 +1177,7 @@
       <c r="H33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1179,24 +1188,24 @@
       <c r="H35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="1048576" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3" t="s">

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -128,9 +128,6 @@
     <t xml:space="preserve">nombre equipo </t>
   </si>
   <si>
-    <t>nombre archivo</t>
-  </si>
-  <si>
     <t xml:space="preserve">numero </t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>TOP</t>
   </si>
   <si>
-    <t>pr_resultado equipo pr_vs equipo pr_temporada fecha</t>
-  </si>
-  <si>
     <t xml:space="preserve">pr_jornada numero pr_temporada fecha </t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>pr_partidos equipo pr_temporada fecha pr_flagF archivo pr_flagApartir numero pr_flagHasta numero</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_resultado equipo pr_vs equipo pr_temporada fecha </t>
   </si>
 </sst>
 </file>
@@ -366,11 +366,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,24 +670,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -703,17 +703,17 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -726,10 +726,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>4</v>
@@ -743,21 +743,21 @@
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -771,14 +771,14 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -792,7 +792,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>18</v>
@@ -806,38 +806,38 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -845,16 +845,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>25</v>
@@ -865,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>12</v>
@@ -879,26 +879,26 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -912,11 +912,11 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>15</v>
@@ -928,18 +928,18 @@
         <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>16</v>
@@ -948,18 +948,18 @@
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
@@ -969,11 +969,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>18</v>
@@ -985,14 +985,14 @@
         <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1005,10 +1005,10 @@
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>20</v>
@@ -1025,10 +1025,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>21</v>
@@ -1046,11 +1046,11 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>22</v>
@@ -1062,30 +1062,30 @@
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>24</v>
@@ -1103,11 +1103,11 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>25</v>
@@ -1124,61 +1124,61 @@
         <v>19</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1186,10 +1186,10 @@
         <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
   <si>
     <t>Nombre</t>
   </si>
@@ -182,9 +183,6 @@
     <t>&lt;2020-2022&gt;</t>
   </si>
   <si>
-    <t>\d{2}</t>
-  </si>
-  <si>
     <t>[a-zA-Z][a-zA-Z0-9_]*</t>
   </si>
   <si>
@@ -264,6 +262,51 @@
   </si>
   <si>
     <t xml:space="preserve">pr_resultado equipo pr_vs equipo pr_temporada fecha </t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>\-</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>[a-zA-Z][a-zA-Z0-9_]+</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>comilla</t>
+  </si>
+  <si>
+    <t>menor que</t>
+  </si>
+  <si>
+    <t>guion</t>
+  </si>
+  <si>
+    <t>mayor que</t>
+  </si>
+  <si>
+    <t>pr_resultado equipo pr_vs equipo fecha</t>
+  </si>
+  <si>
+    <t>digito</t>
+  </si>
+  <si>
+    <t>fecha = menor_que digito{4}  guion digito{4}  mayor_que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero = digito{2} </t>
+  </si>
+  <si>
+    <t>equipo = comilla identificador comilla</t>
   </si>
 </sst>
 </file>
@@ -302,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +427,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,12 +736,12 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="G1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -703,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -726,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>4</v>
@@ -750,7 +815,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -771,7 +836,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
@@ -792,7 +857,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>18</v>
@@ -813,7 +878,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>19</v>
@@ -834,10 +899,10 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -848,13 +913,13 @@
         <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>25</v>
@@ -879,22 +944,22 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -928,10 +993,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -948,10 +1013,10 @@
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -985,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1005,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1025,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1062,10 +1127,10 @@
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1082,10 +1147,10 @@
         <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1124,61 +1189,61 @@
         <v>19</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="H33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1186,10 +1251,10 @@
         <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1220,4 +1285,739 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="G31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="K32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="G35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+      <c r="H49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+      <c r="H50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+      <c r="H53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+      <c r="H57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+      <c r="H58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+      <c r="H61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="2"/>
+      <c r="H62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+      <c r="H63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="I43:R43"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
   <si>
     <t>Nombre</t>
   </si>
@@ -297,23 +297,53 @@
     <t>pr_resultado equipo pr_vs equipo fecha</t>
   </si>
   <si>
-    <t>digito</t>
-  </si>
-  <si>
-    <t>fecha = menor_que digito{4}  guion digito{4}  mayor_que</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numero = digito{2} </t>
-  </si>
-  <si>
     <t>equipo = comilla identificador comilla</t>
+  </si>
+  <si>
+    <t>pr_tabla pr_temporada fecha  pr_flagF identificador</t>
+  </si>
+  <si>
+    <t>pr_partidos equipo pr_temporada fecha pr_flagF identificador</t>
+  </si>
+  <si>
+    <t>fecha = menor_que entero{4}  guion entero{4}  mayor_que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entero = entero{2} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_jornada entero{2} pr_temporada fecha </t>
+  </si>
+  <si>
+    <t>pr_jornada entero{2} pr_temporada fecha pr_flagF identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_partidos equipo pr_temporada fecha pr_flagApartir numero pr_flagHasta entero{2} </t>
+  </si>
+  <si>
+    <t>pr_partidos equipo pr_temporada fecha pr_flagF identificador pr_flagApartir numero pr_flagHasta entero{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_top con_superior pr_temporada fecha pr_flag_n entero{2} </t>
+  </si>
+  <si>
+    <t>pr_top con_inferior pr_temporada fecha pr_flag_n entero{2}</t>
+  </si>
+  <si>
+    <t>entero</t>
+  </si>
+  <si>
+    <t>\d+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +369,13 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,11 +462,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -436,9 +475,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I37"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,24 +777,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1291,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,21 +1344,23 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1392,7 +1436,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1406,7 +1450,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1420,7 +1464,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1449,13 +1493,13 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E14" s="7">
         <v>20</v>
@@ -1665,37 +1709,37 @@
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="K32" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="K33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="K33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
@@ -1708,12 +1752,12 @@
       <c r="I34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="K34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -1801,18 +1845,18 @@
       <c r="H43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
@@ -1827,18 +1871,28 @@
       <c r="H45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="I45" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G46" s="2"/>
       <c r="H46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="I46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G47" s="2"/>
@@ -1852,138 +1906,198 @@
       <c r="H48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G49" s="2"/>
       <c r="H49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G50" s="2"/>
       <c r="H50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
       <c r="H53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G57" s="2"/>
       <c r="H57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G58" s="2"/>
       <c r="H58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+    </row>
+    <row r="59" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G60" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G61" s="2"/>
       <c r="H61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G62" s="2"/>
       <c r="H62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="7:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G63" s="2"/>
       <c r="H63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2010,12 +2124,27 @@
       <c r="I67" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G31:I32"/>
     <mergeCell ref="I43:R43"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I56:Q56"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="I58:R58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="K32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -300,40 +300,40 @@
     <t>equipo = comilla identificador comilla</t>
   </si>
   <si>
-    <t>pr_tabla pr_temporada fecha  pr_flagF identificador</t>
-  </si>
-  <si>
-    <t>pr_partidos equipo pr_temporada fecha pr_flagF identificador</t>
-  </si>
-  <si>
-    <t>fecha = menor_que entero{4}  guion entero{4}  mayor_que</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entero = entero{2} </t>
-  </si>
-  <si>
     <t xml:space="preserve">pr_jornada entero{2} pr_temporada fecha </t>
   </si>
   <si>
-    <t>pr_jornada entero{2} pr_temporada fecha pr_flagF identificador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr_partidos equipo pr_temporada fecha pr_flagApartir numero pr_flagHasta entero{2} </t>
-  </si>
-  <si>
-    <t>pr_partidos equipo pr_temporada fecha pr_flagF identificador pr_flagApartir numero pr_flagHasta entero{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr_top con_superior pr_temporada fecha pr_flag_n entero{2} </t>
-  </si>
-  <si>
-    <t>pr_top con_inferior pr_temporada fecha pr_flag_n entero{2}</t>
-  </si>
-  <si>
     <t>entero</t>
   </si>
   <si>
     <t>\d+</t>
+  </si>
+  <si>
+    <t>pr_partidos equipo pr_temporada fecha flagF identificador</t>
+  </si>
+  <si>
+    <t>fecha = menoQue entero{4}  guion entero{4}  mayorQue</t>
+  </si>
+  <si>
+    <t>entero = entero{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_partidos equipo pr_temporada fecha flagApartir numero flagHasta entero{2} </t>
+  </si>
+  <si>
+    <t>pr_partidos equipo pr_temporada fecha flagF identificador flagApartir numero flagHasta entero{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr_top con_superior pr_temporada fecha flagTop entero{2} </t>
+  </si>
+  <si>
+    <t>pr_top con_inferior pr_temporada fecha  flagTop entero{2}</t>
+  </si>
+  <si>
+    <t>pr_tabla pr_temporada fecha  flagF identificador</t>
+  </si>
+  <si>
+    <t>pr_jornada entero{2} pr_temporada fecha flagF identificador</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="109" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7">
         <v>20</v>
@@ -1721,7 +1721,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="K32" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -1735,7 +1735,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="K33" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -1886,7 +1886,7 @@
         <v>60</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -1965,7 +1965,7 @@
         <v>60</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -2010,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -2125,11 +2125,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="K32:O32"/>
     <mergeCell ref="I61:N61"/>
     <mergeCell ref="I62:M62"/>
     <mergeCell ref="I63:M63"/>
@@ -2140,11 +2140,11 @@
     <mergeCell ref="I57:N57"/>
     <mergeCell ref="I58:R58"/>
     <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="I43:R43"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t>Nombre</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>pr_jornada entero{2} pr_temporada fecha flagF identificador</t>
+  </si>
+  <si>
+    <t>pr_goles condicion equipo pr_temporada fecha</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="109" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1910,7 @@
         <v>57</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -1915,12 +1918,14 @@
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G49" s="2"/>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H49" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
@@ -1930,10 +1935,10 @@
     <row r="50" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G50" s="2"/>
       <c r="H50" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -2125,11 +2130,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="I43:R43"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="I61:N61"/>
     <mergeCell ref="I62:M62"/>
     <mergeCell ref="I63:M63"/>
@@ -2140,11 +2145,11 @@
     <mergeCell ref="I57:N57"/>
     <mergeCell ref="I58:R58"/>
     <mergeCell ref="I60:N60"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="K32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="106">
   <si>
     <t>Nombre</t>
   </si>
@@ -321,9 +321,6 @@
     <t xml:space="preserve">pr_partidos equipo pr_temporada fecha flagApartir numero flagHasta entero{2} </t>
   </si>
   <si>
-    <t>pr_partidos equipo pr_temporada fecha flagF identificador flagApartir numero flagHasta entero{2}</t>
-  </si>
-  <si>
     <t xml:space="preserve">pr_top con_superior pr_temporada fecha flagTop entero{2} </t>
   </si>
   <si>
@@ -336,7 +333,16 @@
     <t>pr_jornada entero{2} pr_temporada fecha flagF identificador</t>
   </si>
   <si>
-    <t>pr_goles condicion equipo pr_temporada fecha</t>
+    <t>pr_goles condicionLocal equipo pr_temporada fecha</t>
+  </si>
+  <si>
+    <t>pr_goles condicionVisitante equipo pr_temporada fecha</t>
+  </si>
+  <si>
+    <t>pr_goles condicionTotal equipo pr_temporada fecha</t>
+  </si>
+  <si>
+    <t>pr_partidos equipo pr_temporada fecha</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -439,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1336,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:M48"/>
+    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1364,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.140625" customWidth="1"/>
@@ -1889,7 +1906,7 @@
         <v>60</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -1910,47 +1927,47 @@
         <v>57</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G50" s="2"/>
       <c r="H50" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G52" s="3" t="s">
         <v>18</v>
       </c>
@@ -1964,13 +1981,13 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
       <c r="H53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -1978,19 +1995,19 @@
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G56" s="3" t="s">
         <v>19</v>
       </c>
@@ -1998,18 +2015,15 @@
         <v>57</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-    </row>
-    <row r="57" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G57" s="2"/>
       <c r="H57" s="3" t="s">
         <v>60</v>
@@ -2023,13 +2037,13 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G58" s="2"/>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
@@ -2039,14 +2053,11 @@
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G60" s="3" t="s">
         <v>61</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>57</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
@@ -2062,13 +2073,13 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G61" s="2"/>
       <c r="H61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
@@ -2076,7 +2087,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G62" s="2"/>
       <c r="H62" s="3" t="s">
         <v>60</v>
@@ -2089,7 +2100,7 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="7:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G63" s="2"/>
       <c r="H63" s="3" t="s">
         <v>60</v>
@@ -2102,7 +2113,7 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2130,26 +2141,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="K32:O32"/>
     <mergeCell ref="I61:N61"/>
     <mergeCell ref="I62:M62"/>
     <mergeCell ref="I63:M63"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="I50:M50"/>
     <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I56:Q56"/>
+    <mergeCell ref="I58:Q58"/>
     <mergeCell ref="I57:N57"/>
-    <mergeCell ref="I58:R58"/>
     <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="I43:R43"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DOCUMENTACION/TABLATOKENS.xlsx
+++ b/DOCUMENTACION/TABLATOKENS.xlsx
@@ -414,13 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,24 +479,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1470,7 +1470,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1554,7 +1554,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1747,7 +1747,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="58" spans="7:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G58" s="2"/>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="10" t="s">
         <v>60</v>
       </c>
       <c r="I58" s="12" t="s">
@@ -2141,11 +2141,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="I43:R43"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
     <mergeCell ref="I61:N61"/>
     <mergeCell ref="I62:M62"/>
     <mergeCell ref="I63:M63"/>
@@ -2156,11 +2156,11 @@
     <mergeCell ref="I57:N57"/>
     <mergeCell ref="I60:N60"/>
     <mergeCell ref="I56:N56"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="K32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
